--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.120519.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.120519.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1885,12 +1885,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1999,12 +1999,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2459,12 +2459,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2649,12 +2649,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2725,12 +2725,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3371,12 +3371,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3599,12 +3599,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3789,12 +3789,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3827,12 +3827,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4743,12 +4743,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4819,12 +4819,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4933,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5047,12 +5047,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5427,12 +5427,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5541,12 +5541,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5579,12 +5579,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6077,12 +6077,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6271,12 +6271,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6309,12 +6309,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6385,12 +6385,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6959,12 +6959,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7909,12 +7909,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8137,12 +8137,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8251,12 +8251,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8593,12 +8593,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8631,12 +8631,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9205,12 +9205,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9813,12 +9813,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10345,12 +10345,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11029,12 +11029,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12211,12 +12211,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12249,12 +12249,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12895,12 +12895,12 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12933,12 +12933,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13465,12 +13465,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13541,12 +13541,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15023,12 +15023,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15441,12 +15441,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15749,12 +15749,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16323,12 +16323,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16475,12 +16475,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16665,12 +16665,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17133,12 +17133,12 @@
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17171,12 +17171,12 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17247,12 +17247,12 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17323,12 +17323,12 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17855,12 +17855,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17893,12 +17893,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18007,12 +18007,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18847,12 +18847,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18885,12 +18885,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
